--- a/data/excluded_refs.xlsx
+++ b/data/excluded_refs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvasc/Desktop/plant_pollinator_interactions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvasc/Desktop/plant_pollinator_interactions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF62531B-6223-A74D-AECE-DC88AB09A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C846B-C4AC-8744-8262-795B434086A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15980" xr2:uid="{91FC2842-615B-9A42-99FF-1BBCD0BE0D82}"/>
+    <workbookView xWindow="7960" yWindow="500" windowWidth="20420" windowHeight="15980" xr2:uid="{91FC2842-615B-9A42-99FF-1BBCD0BE0D82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="116">
   <si>
     <t>Conferir</t>
   </si>
@@ -147,13 +147,251 @@
   </si>
   <si>
     <t>34° 13.2’ N, 116° 57.5’ W</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the study contains information of several islands, but the coordinates are the centroid </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>Chamorro S, heleno R, Olesen JM, McMullen CK, Traveset A. 2012 Pollination patterns and plant breeding systems in the Galápagos: a review. Annals of Botany, Volume 110, Issue 7, November 2012, Pages 1489–1501, https://doi.org/10.1093/aob/mcs132</t>
+  </si>
+  <si>
+    <t>municipalities of Lagunillas and Morelia, in the state of Michoacán, Mexico</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>did not provide separate numbers for bees visits to plants</t>
+  </si>
+  <si>
+    <t>19°32=40=N, 101°16=26=W</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>Cortés-Flores, J., Cornejo-Tenorio, G., &amp; Ibarra-Manríquez, G. (2015). Flowering phenology and pollination syndromes in species with different growth forms in a Neotropical temperate forest of Mexico. Botany, 93(6), 361-367.</t>
+  </si>
+  <si>
+    <t>Michoacán, México</t>
+  </si>
+  <si>
+    <t>no observation pollinators</t>
+  </si>
+  <si>
+    <t>19°32'30''- 40'30''N y los 101°16'39''- 26'16''O</t>
+  </si>
+  <si>
+    <t>Cortés-Flores, J., Cornejo-Tenorio, G., &amp; Ibarra-Manríquez, G. (2011). Fenología reproductiva de las especies arbóreas de un bosque Neotropical. Interciencia, 36(8), 608-613.</t>
+  </si>
+  <si>
+    <t>la Isla Grande de chiloé, en el
+sector de Piruquina (4250'5 -74°10'W) , 12 mk al norte de la ciudad de Castro (Fig. 1) Chile?</t>
+  </si>
+  <si>
+    <t>data from appendix; only woody plants</t>
+  </si>
+  <si>
+    <t>did not provide total number of bee species or plant-bee lists</t>
+  </si>
+  <si>
+    <t>Smith Ramírez, C. (1992). Fenología de plantas leñosas del bosque de Chiloe: relación con factores bióticos y abióticos.</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>"Subalpine meadow, Canada"</t>
+  </si>
+  <si>
+    <t>Pojar, J. (1974). Reproductive dynamics of four plant communities of southwestern British Columbia. Canadian Journal of Botany, 52(8), 1819-1834.</t>
+  </si>
+  <si>
+    <t>"Sphagnum bog B, Canada"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, a subalpine meadow at about 2000 m was selected in Manning Provincial Park, about240km east ofVancouver,B.C. </t>
+  </si>
+  <si>
+    <t>"Sphagnum bog A, Canada"</t>
+  </si>
+  <si>
+    <t>Pacific Rim National Park; A salt marsh and two sphagnum bogs in the vicinity of Tofino, on the west coast of Vancouver Island</t>
+  </si>
+  <si>
+    <t>No visitor species list. "Salt marsh, Canada"</t>
+  </si>
+  <si>
+    <t>near Uberlandia, MG, Brazil</t>
+  </si>
+  <si>
+    <t>no species list. gallery forests in cerrado</t>
+  </si>
+  <si>
+    <t>syndrome+observation</t>
+  </si>
+  <si>
+    <t>Oliveira PE, Gibbs P (2002) Pollination and reproductive biology in cerrado plant communities. In: Oliveira PS, Marquis RJ (eds) The Cerrados of Brazil. Columbia University Press, New York, pp 329–347</t>
+  </si>
+  <si>
+    <t>Dore Crest Alpine Tundra</t>
+  </si>
+  <si>
+    <t>did not provide neither total number for all bees nor interactions by plant species/bee species</t>
+  </si>
+  <si>
+    <t>Dore Cliffs, Tioga Crest</t>
+  </si>
+  <si>
+    <t>Moldenke, AR 1979  Pollination ecology within Sierra Nevada. Phytologia 42:223-282</t>
+  </si>
+  <si>
+    <t>Sualpine Marsh Meadow</t>
+  </si>
+  <si>
+    <t>numbers for bees in page 256</t>
+  </si>
+  <si>
+    <t>if for total proportion of bees, include just one row for this locality</t>
+  </si>
+  <si>
+    <t>Tioga Pass, California</t>
+  </si>
+  <si>
+    <t>Subalpine Talus Scrub</t>
+  </si>
+  <si>
+    <t>Mather Grassland</t>
+  </si>
+  <si>
+    <t>Mather Pass, California</t>
+  </si>
+  <si>
+    <t>Mather Chaparral Scrub</t>
+  </si>
+  <si>
+    <t>Spruce-Fir</t>
+  </si>
+  <si>
+    <t>Rocky Mountains Biological Laboratory, Colorado</t>
+  </si>
+  <si>
+    <t>Moldenke AR &amp; Lincoln PG 1979 Pollination ecology in Montane Colorado: a community analysis. Phytologia 41: 349-379</t>
+  </si>
+  <si>
+    <t>Fescue Grassland</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Table 2. Number of plant species are not accurate. He gives on the number of species for the alpine (100). The more accurate system was the hummingbird &amp; sphinx pollination (3-3%), therefore I use their percentage and number of species to calculate the number of all other species. As some plants can present more than one mode of pollination, the number of plant species is close to the real, but probably not so accurate</t>
+  </si>
+  <si>
+    <t>El bosque seco al noreste de la desembocadura del río Ya- guanabo pertenece al municipio de Cumanayagua, Cienfue- gos, Cuba, y está ubicado al noreste de playa Yaguanabo, en los 21°51,80’ lat. N y 80°12,46’ long. W</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>altitude from raster</t>
+  </si>
+  <si>
+    <t>Lemus-Barrios, H., Barrios, D., &amp; García-Beltrán, J. A. (2022). Sistemas sexuales y rasgos morfoecológicos de las angiospermas en el bosque seco al noreste de la desembocadura del río Yaguanabo, Cienfuegos, Cuba. Revista del Jardín Botánico Nacional, 43, 69-83.</t>
+  </si>
+  <si>
+    <t>La Selva Biological Reserve</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>from Oliveira &amp; Gibbs 2002. couldn't download the book chapter</t>
+  </si>
+  <si>
+    <t>Kress, W. J., and J. H. Beach. 1994. Flowering plant reproductive systems. In L. A. McDade, K. S. Bawa, H. A. Hespenheide, and G. S. Hartshorn [eds.], La Selva, ecology and natural history of a Neotropical rain forest, 161Ð182. University of Chicago Press, Chicago, IL.</t>
+  </si>
+  <si>
+    <t>data for native flora</t>
+  </si>
+  <si>
+    <t>cooridnates from state's centroid</t>
+  </si>
+  <si>
+    <t>Givnish, T. J., Kriebel, R., Zaborsky, J. G., Rose, J. P., Spalink, D., Waller, D. M., ... &amp; Sytsma, K. J. (2020). Adaptive associations among life history, reproductive traits, environment, and origin in the Wisconsin angiosperm flora. American Journal of Botany, 107(12), 1677-1692.</t>
+  </si>
+  <si>
+    <t>floral morphology, floral biology and visitation. no correspondence between plant sp and animal visitor sp; Table S1 for bee info (any small bee or medium to large bee included)</t>
+  </si>
+  <si>
+    <t>Genini, J., Guimarães Jr, P. R., Sazima, M., Sazima, I., &amp; Morellato, L. P. C. (2021). Temporal organization among pollination systems in a tropical seasonal forest. The Science of Nature, 108(4), 34.</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>only most frequent species</t>
+  </si>
+  <si>
+    <t>31 20'S; 64 45'W</t>
+  </si>
+  <si>
+    <t>Diaz, S., Acosta, A., &amp; Cabido, M. (1994). Grazing and the phenology of flowering and fruiting in a montane grassland in Argentina: a niche approach. Oikos, 287-295.</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Review that include reliable information for 70 plant species, of which 34 are endemic, 21 non-endemic natives and 13 alien and two possibly native ; altitude from 0 to 1700m, leaving as NA due to uncertainty</t>
+  </si>
+  <si>
+    <t>did not provide separate numbers for bees and ants visits to plants</t>
+  </si>
+  <si>
+    <t>Stanford Serpentine Grassland</t>
+  </si>
+  <si>
+    <t>Moldenke, AR 1976 California pollination ecology and vegetation types. Phytologia 34:305-361</t>
+  </si>
+  <si>
+    <t>Stanford Oak Medrone Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford results are also present in the paper Moldenke 1979 Table 2, but restricted to the grasslands. However, in the same paper, he presents other data on the other envirnments in Stanford, such as the number of plant species </t>
+  </si>
+  <si>
+    <t>Stanford Forest</t>
+  </si>
+  <si>
+    <t>Could not find number of species for this environment nor in this neither in the Moldenke 1979 Sierra Nevada paper</t>
+  </si>
+  <si>
+    <t>Plant species list x visitor categories plus bee genera. Vector categories represent the most efficient modes of pollination for a particular plant genus rather than simply the total flower visitors. Pollinators utilized are those actually observed, rather than speculation based on fflower morphology</t>
+  </si>
+  <si>
+    <t>Stanford Chaparral Scrub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,15 +432,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,15 +463,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,29 +808,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D55DF68-6A96-D948-B9A2-3D558FEB9CC4}">
-  <dimension ref="A1:AS27"/>
+  <dimension ref="A1:AW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="16">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -604,21 +852,21 @@
         <v>17.916599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="16">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="16">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -630,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -642,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -654,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -679,7 +927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -702,7 +950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -724,7 +972,7 @@
         <v>-66.883300000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -736,7 +984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -751,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="16">
+    <row r="17" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -763,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="16">
+    <row r="18" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -813,7 +1061,7 @@
       <c r="AL18" s="2"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="16">
+    <row r="19" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -855,7 +1103,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="16">
+    <row r="20" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -890,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="16">
+    <row r="21" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -919,13 +1167,2048 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="27" spans="1:45" ht="16">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+    <row r="22" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="AS22" s="2"/>
+    </row>
+    <row r="23" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23">
+        <v>-0.95379999999999998</v>
+      </c>
+      <c r="L23">
+        <v>-90.965599999999995</v>
+      </c>
+      <c r="M23">
+        <v>123</v>
+      </c>
+      <c r="T23">
+        <v>0.74</v>
+      </c>
+      <c r="Z23">
+        <v>0.35</v>
+      </c>
+      <c r="AA23">
+        <v>0.19</v>
+      </c>
+      <c r="AE23">
+        <v>0.09</v>
+      </c>
+      <c r="AL23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AN23">
+        <v>0.1</v>
+      </c>
+      <c r="AU23">
+        <v>0.8</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>2011</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>19.541666670000001</v>
+      </c>
+      <c r="L24">
+        <v>-101.2775</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="AJ24">
+        <v>0.31</v>
+      </c>
+      <c r="AO24">
+        <v>0.69</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>2615</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>19.544444439999999</v>
+      </c>
+      <c r="L25">
+        <v>-101.2738889</v>
+      </c>
+      <c r="M25">
+        <v>143</v>
+      </c>
+      <c r="AJ25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AL25">
+        <v>0.11</v>
+      </c>
+      <c r="AO25">
+        <v>0.09</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>1994</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2250</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26">
+        <v>31.333333329999999</v>
+      </c>
+      <c r="L26">
+        <v>-64.75</v>
+      </c>
+      <c r="M26">
+        <v>20</v>
+      </c>
+      <c r="AJ26">
+        <v>0.2</v>
+      </c>
+      <c r="AO26">
+        <v>0.8</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5">
+        <v>670</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-22.8292</v>
+      </c>
+      <c r="L27" s="5">
+        <v>-47.109200000000001</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW27" s="5"/>
+    </row>
+    <row r="28" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28">
+        <v>43.784399999999998</v>
+      </c>
+      <c r="L28">
+        <v>-88.787899999999993</v>
+      </c>
+      <c r="M28">
+        <v>1547</v>
+      </c>
+      <c r="AQ28">
+        <v>0.34</v>
+      </c>
+      <c r="AR28">
+        <v>0.64</v>
+      </c>
+      <c r="AS28">
+        <v>0.01</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>1994</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>157</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29">
+        <v>10.333299999999999</v>
+      </c>
+      <c r="L29">
+        <v>-83.9833</v>
+      </c>
+      <c r="O29">
+        <v>0.24</v>
+      </c>
+      <c r="P29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V29">
+        <v>0.02</v>
+      </c>
+      <c r="W29">
+        <v>0.04</v>
+      </c>
+      <c r="X29">
+        <v>0.08</v>
+      </c>
+      <c r="AA29">
+        <v>0.02</v>
+      </c>
+      <c r="AE29">
+        <v>0.13</v>
+      </c>
+      <c r="AK29">
+        <v>0.03</v>
+      </c>
+      <c r="AL29">
+        <v>0.15</v>
+      </c>
+      <c r="AO29">
+        <v>0.03</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30">
+        <v>21.850222219999999</v>
+      </c>
+      <c r="L30">
+        <v>-80.200127780000003</v>
+      </c>
+      <c r="M30">
+        <v>105</v>
+      </c>
+      <c r="AJ30">
+        <v>0.75</v>
+      </c>
+      <c r="AK30">
+        <v>0.06</v>
+      </c>
+      <c r="AL30">
+        <v>0.17</v>
+      </c>
+      <c r="AO30">
+        <v>0.01</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>1979</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>4050</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31">
+        <v>38.959200000000003</v>
+      </c>
+      <c r="L31">
+        <v>-106.9897</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31">
+        <v>0.16</v>
+      </c>
+      <c r="R31">
+        <v>0.31</v>
+      </c>
+      <c r="S31">
+        <v>0.04</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.12</v>
+      </c>
+      <c r="Y31">
+        <v>0.03</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0.21</v>
+      </c>
+      <c r="AD31">
+        <v>0.1</v>
+      </c>
+      <c r="AL31">
+        <v>0.03</v>
+      </c>
+      <c r="AO31">
+        <v>0.17</v>
+      </c>
+      <c r="AU31">
+        <v>0.48</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>1979</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>3250</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>38.959200000000003</v>
+      </c>
+      <c r="L32">
+        <v>-106.9897</v>
+      </c>
+      <c r="M32">
+        <v>83</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32">
+        <v>0.16</v>
+      </c>
+      <c r="R32">
+        <v>0.25</v>
+      </c>
+      <c r="S32">
+        <v>0.08</v>
+      </c>
+      <c r="V32">
+        <v>0.01</v>
+      </c>
+      <c r="W32">
+        <v>0.01</v>
+      </c>
+      <c r="Y32">
+        <v>0.06</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.08</v>
+      </c>
+      <c r="AD32">
+        <v>0.01</v>
+      </c>
+      <c r="AL32">
+        <v>0.06</v>
+      </c>
+      <c r="AO32">
+        <v>0.21</v>
+      </c>
+      <c r="AU32">
+        <v>0.25</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>1979</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <v>3180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>38.959200000000003</v>
+      </c>
+      <c r="L33">
+        <v>-106.9897</v>
+      </c>
+      <c r="M33">
+        <v>80</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33">
+        <v>0.27</v>
+      </c>
+      <c r="R33">
+        <v>0.31</v>
+      </c>
+      <c r="S33">
+        <v>0.01</v>
+      </c>
+      <c r="V33">
+        <v>0.05</v>
+      </c>
+      <c r="W33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y33">
+        <v>0.05</v>
+      </c>
+      <c r="AB33">
+        <v>0.08</v>
+      </c>
+      <c r="AC33">
+        <v>0.01</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0.05</v>
+      </c>
+      <c r="AO33">
+        <v>0.12</v>
+      </c>
+      <c r="AU33">
+        <v>0.24</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>1979</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>3225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34">
+        <v>38.959200000000003</v>
+      </c>
+      <c r="L34">
+        <v>-106.9897</v>
+      </c>
+      <c r="M34">
+        <v>87.5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34">
+        <v>0.26</v>
+      </c>
+      <c r="R34">
+        <v>0.35</v>
+      </c>
+      <c r="S34">
+        <v>0.21</v>
+      </c>
+      <c r="V34">
+        <v>0.01</v>
+      </c>
+      <c r="W34">
+        <v>0.05</v>
+      </c>
+      <c r="Y34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB34">
+        <v>0.03</v>
+      </c>
+      <c r="AC34">
+        <v>0.18</v>
+      </c>
+      <c r="AD34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO34">
+        <v>0.17</v>
+      </c>
+      <c r="AU34">
+        <v>0.21</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>1979</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>3192.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>38.959200000000003</v>
+      </c>
+      <c r="L35">
+        <v>-106.9897</v>
+      </c>
+      <c r="M35">
+        <v>133</v>
+      </c>
+      <c r="N35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35">
+        <v>0.12</v>
+      </c>
+      <c r="R35">
+        <v>0.24</v>
+      </c>
+      <c r="S35">
+        <v>0.05</v>
+      </c>
+      <c r="V35">
+        <v>0.04</v>
+      </c>
+      <c r="W35">
+        <v>0.06</v>
+      </c>
+      <c r="Y35">
+        <v>0.04</v>
+      </c>
+      <c r="AB35">
+        <v>0.02</v>
+      </c>
+      <c r="AC35">
+        <v>0.15</v>
+      </c>
+      <c r="AD35">
+        <v>0.05</v>
+      </c>
+      <c r="AL35">
+        <v>0.04</v>
+      </c>
+      <c r="AO35">
+        <v>0.19</v>
+      </c>
+      <c r="AU35">
+        <v>0.25</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>1979</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>37.0319</v>
+      </c>
+      <c r="L36">
+        <v>-118.4601</v>
+      </c>
+      <c r="M36">
+        <v>62</v>
+      </c>
+      <c r="N36">
+        <v>0.66</v>
+      </c>
+      <c r="Q36">
+        <v>0.62</v>
+      </c>
+      <c r="R36">
+        <v>0.47</v>
+      </c>
+      <c r="V36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W36">
+        <v>0.2</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0.12</v>
+      </c>
+      <c r="AB36">
+        <v>0.23</v>
+      </c>
+      <c r="AC36">
+        <v>0.01</v>
+      </c>
+      <c r="AD36">
+        <v>0.01</v>
+      </c>
+      <c r="AE36">
+        <v>0.16</v>
+      </c>
+      <c r="AL36">
+        <v>0.12</v>
+      </c>
+      <c r="AO36">
+        <v>0.12</v>
+      </c>
+      <c r="AU36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>1979</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>37.0319</v>
+      </c>
+      <c r="L37">
+        <v>-118.4601</v>
+      </c>
+      <c r="M37">
+        <v>103</v>
+      </c>
+      <c r="N37">
+        <v>0.66</v>
+      </c>
+      <c r="Q37">
+        <v>0.4</v>
+      </c>
+      <c r="R37">
+        <v>0.12</v>
+      </c>
+      <c r="V37">
+        <v>0.02</v>
+      </c>
+      <c r="W37">
+        <v>0.13</v>
+      </c>
+      <c r="X37">
+        <v>0.02</v>
+      </c>
+      <c r="Y37">
+        <v>0.01</v>
+      </c>
+      <c r="AB37">
+        <v>0.16</v>
+      </c>
+      <c r="AC37">
+        <v>0.04</v>
+      </c>
+      <c r="AD37">
+        <v>0.03</v>
+      </c>
+      <c r="AE37">
+        <v>0.13</v>
+      </c>
+      <c r="AL37">
+        <v>0.01</v>
+      </c>
+      <c r="AO37">
+        <v>0.31</v>
+      </c>
+      <c r="AU37">
+        <v>0.42</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>1979</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <v>37.906599999999997</v>
+      </c>
+      <c r="L38">
+        <v>-119.2548</v>
+      </c>
+      <c r="M38">
+        <v>181</v>
+      </c>
+      <c r="N38">
+        <v>0.52</v>
+      </c>
+      <c r="Q38">
+        <v>0.2</v>
+      </c>
+      <c r="R38">
+        <v>0.22</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.08</v>
+      </c>
+      <c r="X38">
+        <v>0.01</v>
+      </c>
+      <c r="Y38">
+        <v>0.06</v>
+      </c>
+      <c r="AB38">
+        <v>0.05</v>
+      </c>
+      <c r="AC38">
+        <v>0.02</v>
+      </c>
+      <c r="AD38">
+        <v>0.08</v>
+      </c>
+      <c r="AE38">
+        <v>0.06</v>
+      </c>
+      <c r="AL38">
+        <v>0.06</v>
+      </c>
+      <c r="AO38">
+        <v>0.2</v>
+      </c>
+      <c r="AU38">
+        <v>0.35</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>1979</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>37.906599999999997</v>
+      </c>
+      <c r="L39">
+        <v>-119.2548</v>
+      </c>
+      <c r="M39">
+        <v>137</v>
+      </c>
+      <c r="N39">
+        <v>0.52</v>
+      </c>
+      <c r="Q39">
+        <v>0.09</v>
+      </c>
+      <c r="R39">
+        <v>0.15</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.02</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0.02</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0.02</v>
+      </c>
+      <c r="AD39">
+        <v>0.16</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0.02</v>
+      </c>
+      <c r="AO39">
+        <v>0.35</v>
+      </c>
+      <c r="AU39">
+        <v>0.19</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>1979</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>37.99</v>
+      </c>
+      <c r="L40">
+        <v>-119.22669999999999</v>
+      </c>
+      <c r="M40">
+        <v>79</v>
+      </c>
+      <c r="Q40">
+        <v>0.27</v>
+      </c>
+      <c r="R40">
+        <v>0.24</v>
+      </c>
+      <c r="V40">
+        <v>0.01</v>
+      </c>
+      <c r="W40">
+        <v>0.08</v>
+      </c>
+      <c r="X40">
+        <v>0.02</v>
+      </c>
+      <c r="Y40">
+        <v>0.04</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0.01</v>
+      </c>
+      <c r="AD40">
+        <v>0.05</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0.04</v>
+      </c>
+      <c r="AO40">
+        <v>0.25</v>
+      </c>
+      <c r="AU40">
+        <v>0.39</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>2002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <v>-18.912800000000001</v>
+      </c>
+      <c r="L41">
+        <v>-48.275500000000001</v>
+      </c>
+      <c r="M41">
+        <v>102</v>
+      </c>
+      <c r="O41">
+        <v>0.23</v>
+      </c>
+      <c r="W41">
+        <v>0.02</v>
+      </c>
+      <c r="X41">
+        <v>0.12</v>
+      </c>
+      <c r="AE41">
+        <v>0.06</v>
+      </c>
+      <c r="AI41">
+        <v>0.45</v>
+      </c>
+      <c r="AJ41">
+        <v>0.45</v>
+      </c>
+      <c r="AK41">
+        <v>0.04</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0.01</v>
+      </c>
+      <c r="AO41">
+        <v>0.01</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>1974</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42">
+        <v>48.791899999999998</v>
+      </c>
+      <c r="L42">
+        <v>-125.1564</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU42">
+        <v>0.17</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>1974</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43">
+        <v>48.791899999999998</v>
+      </c>
+      <c r="L43">
+        <v>-125.1564</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AK43"/>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43">
+        <v>0.38</v>
+      </c>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43">
+        <v>0.04</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>1974</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>48.791899999999998</v>
+      </c>
+      <c r="L44">
+        <v>-125.1564</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0.4</v>
+      </c>
+      <c r="AU44">
+        <v>0.03</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>1974</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>48.791899999999998</v>
+      </c>
+      <c r="L45">
+        <v>-125.1564</v>
+      </c>
+      <c r="M45">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45">
+        <v>0.67</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0.22</v>
+      </c>
+      <c r="AU45">
+        <v>0.09</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>1992</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46">
+        <v>-42.833333330000002</v>
+      </c>
+      <c r="L46">
+        <v>-74.166666669999998</v>
+      </c>
+      <c r="M46">
+        <v>63</v>
+      </c>
+      <c r="AJ46">
+        <v>0.73</v>
+      </c>
+      <c r="AL46">
+        <v>0.21</v>
+      </c>
+      <c r="AO46">
+        <v>0.03</v>
+      </c>
+      <c r="AT46">
+        <v>0.03</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW46" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>1976</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <v>37.428229999999999</v>
+      </c>
+      <c r="J47">
+        <v>-122.16886100000001</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="O47">
+        <v>0.42</v>
+      </c>
+      <c r="P47">
+        <v>0.08</v>
+      </c>
+      <c r="T47">
+        <v>0.05</v>
+      </c>
+      <c r="U47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V47">
+        <v>0.02</v>
+      </c>
+      <c r="W47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z47">
+        <v>0.12</v>
+      </c>
+      <c r="AA47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB47">
+        <v>0.06</v>
+      </c>
+      <c r="AC47">
+        <v>0.2</v>
+      </c>
+      <c r="AJ47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM47">
+        <v>0.12</v>
+      </c>
+      <c r="AS47">
+        <v>0.15</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48">
+        <v>1976</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48">
+        <v>37.428229999999999</v>
+      </c>
+      <c r="J48">
+        <v>-122.16886100000001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s">
+        <v>69</v>
+      </c>
+      <c r="O48">
+        <v>0.17</v>
+      </c>
+      <c r="P48">
+        <v>0.18</v>
+      </c>
+      <c r="T48">
+        <v>0.02</v>
+      </c>
+      <c r="U48">
+        <v>0.01</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.06</v>
+      </c>
+      <c r="Z48">
+        <v>0.09</v>
+      </c>
+      <c r="AA48">
+        <v>0.06</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0.05</v>
+      </c>
+      <c r="AJ48">
+        <v>0.03</v>
+      </c>
+      <c r="AM48">
+        <v>0.19</v>
+      </c>
+      <c r="AS48">
+        <v>0.18</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <v>1976</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49">
+        <v>37.428229999999999</v>
+      </c>
+      <c r="J49">
+        <v>-122.16886100000001</v>
+      </c>
+      <c r="K49">
+        <v>104</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="O49">
+        <v>0.45</v>
+      </c>
+      <c r="P49">
+        <v>0.15</v>
+      </c>
+      <c r="T49">
+        <v>0.03</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.03</v>
+      </c>
+      <c r="W49">
+        <v>0.03</v>
+      </c>
+      <c r="Z49">
+        <v>0.15</v>
+      </c>
+      <c r="AA49">
+        <v>0.09</v>
+      </c>
+      <c r="AB49">
+        <v>0.02</v>
+      </c>
+      <c r="AC49">
+        <v>0.1</v>
+      </c>
+      <c r="AJ49">
+        <v>0.06</v>
+      </c>
+      <c r="AM49">
+        <v>0.18</v>
+      </c>
+      <c r="AS49">
+        <v>0.22</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>1976</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50">
+        <v>37.428229999999999</v>
+      </c>
+      <c r="J50">
+        <v>-122.16886100000001</v>
+      </c>
+      <c r="K50">
+        <v>150</v>
+      </c>
+      <c r="L50" t="s">
+        <v>69</v>
+      </c>
+      <c r="O50">
+        <v>0.41</v>
+      </c>
+      <c r="P50">
+        <v>0.1</v>
+      </c>
+      <c r="T50">
+        <v>0.01</v>
+      </c>
+      <c r="U50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V50">
+        <v>0.01</v>
+      </c>
+      <c r="W50">
+        <v>0.03</v>
+      </c>
+      <c r="Z50">
+        <v>0.2</v>
+      </c>
+      <c r="AA50">
+        <v>0.04</v>
+      </c>
+      <c r="AB50">
+        <v>0.03</v>
+      </c>
+      <c r="AC50">
+        <v>0.16</v>
+      </c>
+      <c r="AJ50">
+        <v>0.03</v>
+      </c>
+      <c r="AM50">
+        <v>0.16</v>
+      </c>
+      <c r="AS50">
+        <v>0.41</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
